--- a/Output/Results_Growth/Bootstrap_Curve_Comparisons.xlsx
+++ b/Output/Results_Growth/Bootstrap_Curve_Comparisons.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46.35444276070094</v>
+        <v>46.27740942226161</v>
       </c>
       <c r="E2" t="n">
-        <v>40.13616319027972</v>
+        <v>40.01765960653007</v>
       </c>
       <c r="F2" t="n">
-        <v>52.37178241570523</v>
+        <v>52.34543199021919</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>64.19753086419753</v>
+        <v>65.4320987654321</v>
       </c>
     </row>
   </sheetData>
